--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/Bypakke Vestfoldbyene/Buss CSV_text/Vestfold/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2220DE80-6DCA-4BCA-9010-BB79B35AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC539591-F767-41D9-A41F-5BCFE8CC725B}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{2220DE80-6DCA-4BCA-9010-BB79B35AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DF326EC-A09D-4814-932C-F1FA77179688}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A20441C1-2486-449C-8240-D6AA0D25B651}"/>
+    <workbookView xWindow="0" yWindow="1056" windowWidth="23232" windowHeight="11280" xr2:uid="{A20441C1-2486-449C-8240-D6AA0D25B651}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>trafficData</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>E18</t>
+  </si>
+  <si>
+    <t>Helland syd</t>
+  </si>
+  <si>
+    <t>39653V2172095</t>
   </si>
 </sst>
 </file>
@@ -119,9 +125,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,9 +147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FD954-FB6D-494E-B78C-57843C49954D}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +509,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2024</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>4909</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{2220DE80-6DCA-4BCA-9010-BB79B35AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DF326EC-A09D-4814-932C-F1FA77179688}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{2220DE80-6DCA-4BCA-9010-BB79B35AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56EF7CF2-0AE7-439B-BB36-8A88671035E0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1056" windowWidth="23232" windowHeight="11280" xr2:uid="{A20441C1-2486-449C-8240-D6AA0D25B651}"/>
+    <workbookView xWindow="31200" yWindow="2100" windowWidth="29040" windowHeight="14100" xr2:uid="{A20441C1-2486-449C-8240-D6AA0D25B651}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>trafficData</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>39653V2172095</t>
+  </si>
+  <si>
+    <t>trafficData1</t>
   </si>
 </sst>
 </file>
@@ -125,10 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +448,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +513,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -534,7 +536,7 @@
       <c r="H3">
         <v>100</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_2.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Tellepunkter_med_mangel_tungtrafikk_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{2220DE80-6DCA-4BCA-9010-BB79B35AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56EF7CF2-0AE7-439B-BB36-8A88671035E0}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{2220DE80-6DCA-4BCA-9010-BB79B35AC4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55C58CD-FA8E-4584-BD90-699298919758}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2100" windowWidth="29040" windowHeight="14100" xr2:uid="{A20441C1-2486-449C-8240-D6AA0D25B651}"/>
+    <workbookView xWindow="1452" yWindow="1164" windowWidth="17280" windowHeight="8880" xr2:uid="{A20441C1-2486-449C-8240-D6AA0D25B651}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>trafficData</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>trafficData1</t>
+  </si>
+  <si>
+    <t>trafficData2</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FD954-FB6D-494E-B78C-57843C49954D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,6 +543,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2024</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>4583</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
